--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vohoa\My Drive\Work\Learning\Playwright\Demoblaze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E6741-CE7C-4D54-97FD-DD6ACB438D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753292D8-01F7-42C7-A374-A9F729631E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D0C053E3-57BD-4EE2-A6D2-4437B9863B6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="243">
   <si>
     <t>Feature</t>
   </si>
@@ -728,27 +728,15 @@
     <t>TD-LGN-NEG-07</t>
   </si>
   <si>
-    <t>LGN-005</t>
-  </si>
-  <si>
     <t>TD-LGN-NEG-08</t>
   </si>
   <si>
-    <t>LGN-006</t>
-  </si>
-  <si>
     <t>TD-LGN-NEG-09</t>
   </si>
   <si>
-    <t>LGN-007</t>
-  </si>
-  <si>
     <t>TD-LGN-NEG-10</t>
   </si>
   <si>
-    <t>LGN-008</t>
-  </si>
-  <si>
     <t>TD-LGN-NEG-11</t>
   </si>
   <si>
@@ -759,6 +747,126 @@
   </si>
   <si>
     <t>Place order with invalid month value less than 1</t>
+  </si>
+  <si>
+    <t>Login with SQL injection in username</t>
+  </si>
+  <si>
+    <t>Login with SQL injection in password</t>
+  </si>
+  <si>
+    <t>Login with XSS script injected in username</t>
+  </si>
+  <si>
+    <t>Login with XSS script injected in password</t>
+  </si>
+  <si>
+    <t>Login with HTML tags in username</t>
+  </si>
+  <si>
+    <t>Login with HTML tags in in password</t>
+  </si>
+  <si>
+    <t>Login with special chars in username</t>
+  </si>
+  <si>
+    <t>Login with special chars in password</t>
+  </si>
+  <si>
+    <t>Login with unicode in username</t>
+  </si>
+  <si>
+    <t>Login with unicode in password</t>
+  </si>
+  <si>
+    <t>[special chars]</t>
+  </si>
+  <si>
+    <t>[unicode chars]</t>
+  </si>
+  <si>
+    <t>[SQL injection]</t>
+  </si>
+  <si>
+    <t>[XSS script injected]</t>
+  </si>
+  <si>
+    <t>[HTML tags]</t>
+  </si>
+  <si>
+    <t>testuser1234567890</t>
+  </si>
+  <si>
+    <r>
+      <t>Concurrent logins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: same account logging in from multiple browsers/devices</t>
+    </r>
+  </si>
+  <si>
+    <t>Login with emoji in username</t>
+  </si>
+  <si>
+    <t>Login with emoji in password</t>
+  </si>
+  <si>
+    <t>[valid username]</t>
+  </si>
+  <si>
+    <t>[emoji]</t>
+  </si>
+  <si>
+    <t>Login with valid credential after multiple failed login attempts</t>
+  </si>
+  <si>
+    <t>TD-LGN-VALID-05</t>
+  </si>
+  <si>
+    <t>TD-LGN-VALID-06</t>
+  </si>
+  <si>
+    <t>TD-LGN-VALID-07</t>
+  </si>
+  <si>
+    <t>TD-LGN-VALID-08</t>
+  </si>
+  <si>
+    <t>TD-LGN-VALID-09</t>
+  </si>
+  <si>
+    <t>TD-LGN-VALID-10</t>
+  </si>
+  <si>
+    <t>TD-LGN-VALID-11</t>
+  </si>
+  <si>
+    <t>TD-LGN-VALID-12</t>
+  </si>
+  <si>
+    <t>TD-LGN-NEG-12</t>
+  </si>
+  <si>
+    <t>TD-LGN-NEG-13</t>
+  </si>
+  <si>
+    <t>TD-LGN-NEG-14</t>
+  </si>
+  <si>
+    <t>TD-LGN-NEG-15</t>
+  </si>
+  <si>
+    <t>TD-LGN-NEG-16</t>
+  </si>
+  <si>
+    <t>TD-LGN-NEG-17</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1371,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1301,6 +1409,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2083,7 +2193,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B5B937-4BBA-4703-BB45-7A7B8891B1BF}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -2209,179 +2319,179 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>191</v>
+        <v>235</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>35</v>
@@ -2389,16 +2499,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>85</v>
@@ -2409,623 +2519,449 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D25" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D27" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="F27" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I25" s="5"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I26" s="5"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H28" s="10">
-        <v>12</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H30" s="10">
-        <v>12</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H31" s="10">
-        <v>12</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H32" s="10">
-        <v>12</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H33" s="10">
-        <v>12</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="10">
-        <v>12</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>56</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="I34" s="5"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>56</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I35" s="5"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="10">
-        <v>12</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I36" s="5"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="12">
-        <v>123</v>
-      </c>
-      <c r="H37" s="10">
-        <v>12</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="I37" s="5"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="12">
-        <v>1.23456789012345E+19</v>
-      </c>
-      <c r="H38" s="10">
-        <v>12</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="I38" s="5"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="I39" s="5"/>
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H40" s="10">
-        <v>13</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="I40" s="5"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H41" s="10">
-        <v>-1</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M41" s="3"/>
+    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>49</v>
@@ -3039,68 +2975,60 @@
       <c r="G42" s="12">
         <v>4111111111111110</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>67</v>
+      <c r="H42" s="10">
+        <v>12</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>185</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="12">
         <v>4111111111111110</v>
       </c>
-      <c r="H43" s="10">
-        <v>12</v>
-      </c>
-      <c r="I43" s="10">
-        <v>2025</v>
-      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="10" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="G44" s="12">
         <v>4111111111111110</v>
@@ -3109,41 +3037,503 @@
         <v>12</v>
       </c>
       <c r="I44" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H45" s="10">
+        <v>12</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H46" s="10">
+        <v>12</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H47" s="10">
+        <v>12</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="10">
+        <v>12</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="10">
+        <v>12</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="12">
+        <v>123</v>
+      </c>
+      <c r="H51" s="10">
+        <v>12</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1.23456789012345E+19</v>
+      </c>
+      <c r="H52" s="10">
+        <v>12</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H54" s="10">
+        <v>13</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H55" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H57" s="10">
+        <v>12</v>
+      </c>
+      <c r="I57" s="10">
+        <v>2025</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H58" s="10">
+        <v>12</v>
+      </c>
+      <c r="I58" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I50" s="4"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I52" s="4"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I54" s="4"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I56" s="4"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I58" s="4"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I60" s="4"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C63" s="4"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vohoa\My Drive\Work\Learning\Playwright\Demoblaze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753292D8-01F7-42C7-A374-A9F729631E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B987F4-4180-439E-8BDD-88AEF68AC331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D0C053E3-57BD-4EE2-A6D2-4437B9863B6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="259">
   <si>
     <t>Feature</t>
   </si>
@@ -867,6 +867,56 @@
   </si>
   <si>
     <t>TD-LGN-NEG-17</t>
+  </si>
+  <si>
+    <t>Place order with valid data having long value</t>
+  </si>
+  <si>
+    <t>Place order with valid data having unicode</t>
+  </si>
+  <si>
+    <t>Place order with valid data having emoji</t>
+  </si>
+  <si>
+    <t>Place order with valid data having SQL injection</t>
+  </si>
+  <si>
+    <t>Place order with valid data having XSS script</t>
+  </si>
+  <si>
+    <t>Place order with valid data having HTMS tags</t>
+  </si>
+  <si>
+    <t>TD-CRT-ORD-VAL-04</t>
+  </si>
+  <si>
+    <t>TD-CRT-ORD-VAL-05</t>
+  </si>
+  <si>
+    <t>TD-CRT-ORD-VAL-06</t>
+  </si>
+  <si>
+    <t>TD-CRT-ORD-VAL-07</t>
+  </si>
+  <si>
+    <t>TD-CRT-ORD-VAL-08</t>
+  </si>
+  <si>
+    <t>TD-CRT-ORD-VAL-09</t>
+  </si>
+  <si>
+    <t>[long value]</t>
+  </si>
+  <si>
+    <t>[XSS script]</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>No application crash
+No unhandled errors
+No security vulnerabilities triggered</t>
   </si>
 </sst>
 </file>
@@ -2193,9 +2243,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B5B937-4BBA-4703-BB45-7A7B8891B1BF}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2209,7 +2259,7 @@
     <col min="8" max="8" width="11.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="33.5546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="27.109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="20.77734375" style="5" customWidth="1"/>
     <col min="14" max="14" width="26.88671875" style="3" customWidth="1"/>
@@ -2952,6 +3002,9 @@
       <c r="J41" s="9" t="s">
         <v>178</v>
       </c>
+      <c r="K41" s="9" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
@@ -2984,6 +3037,7 @@
       <c r="J42" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="K42" s="10"/>
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -3009,6 +3063,7 @@
       <c r="J43" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="K43" s="10"/>
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -3042,26 +3097,27 @@
       <c r="J44" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="K44" s="10"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="G45" s="12">
         <v>4111111111111110</v>
@@ -3072,29 +3128,29 @@
       <c r="I45" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>72</v>
+        <v>250</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="G46" s="12">
         <v>4111111111111110</v>
@@ -3108,26 +3164,28 @@
       <c r="J46" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K46" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="G47" s="12">
         <v>4111111111111110</v>
@@ -3139,31 +3197,33 @@
         <v>185</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>160</v>
+        <v>252</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>39</v>
+        <v>219</v>
+      </c>
+      <c r="G48" s="12">
+        <v>4111111111111110</v>
       </c>
       <c r="H48" s="10">
         <v>12</v>
@@ -3172,64 +3232,68 @@
         <v>185</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>161</v>
+        <v>253</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>39</v>
+        <v>256</v>
+      </c>
+      <c r="G49" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H49" s="10">
+        <v>12</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>162</v>
+        <v>254</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>60</v>
+        <v>221</v>
+      </c>
+      <c r="G50" s="12">
+        <v>4111111111111110</v>
       </c>
       <c r="H50" s="10">
         <v>12</v>
@@ -3238,19 +3302,21 @@
         <v>185</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M50" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>49</v>
@@ -3262,7 +3328,7 @@
         <v>51</v>
       </c>
       <c r="G51" s="12">
-        <v>123</v>
+        <v>4111111111111110</v>
       </c>
       <c r="H51" s="10">
         <v>12</v>
@@ -3271,19 +3337,20 @@
         <v>185</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K51" s="10"/>
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>49</v>
@@ -3295,7 +3362,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="12">
-        <v>1.23456789012345E+19</v>
+        <v>4111111111111110</v>
       </c>
       <c r="H52" s="10">
         <v>12</v>
@@ -3304,8 +3371,9 @@
         <v>185</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K52" s="10"/>
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -3313,13 +3381,13 @@
         <v>18</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>50</v>
@@ -3331,14 +3399,15 @@
         <v>4111111111111110</v>
       </c>
       <c r="H53" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>185</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K53" s="10"/>
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -3346,10 +3415,10 @@
         <v>18</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>49</v>
@@ -3360,18 +3429,19 @@
       <c r="F54" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="12">
-        <v>4111111111111110</v>
+      <c r="G54" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="H54" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>185</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K54" s="10"/>
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -3379,32 +3449,33 @@
         <v>18</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G55" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H55" s="10">
-        <v>-1</v>
+        <v>39</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K55" s="10"/>
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -3412,10 +3483,10 @@
         <v>18</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>49</v>
@@ -3426,18 +3497,19 @@
       <c r="F56" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G56" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>67</v>
+      <c r="G56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="10">
+        <v>12</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>185</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K56" s="10"/>
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -3445,10 +3517,10 @@
         <v>18</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>49</v>
@@ -3460,17 +3532,18 @@
         <v>51</v>
       </c>
       <c r="G57" s="12">
-        <v>4111111111111110</v>
+        <v>123</v>
       </c>
       <c r="H57" s="10">
         <v>12</v>
       </c>
-      <c r="I57" s="10">
-        <v>2025</v>
+      <c r="I57" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K57" s="10"/>
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3478,10 +3551,10 @@
         <v>18</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>49</v>
@@ -3493,47 +3566,223 @@
         <v>51</v>
       </c>
       <c r="G58" s="12">
-        <v>4111111111111110</v>
+        <v>1.23456789012345E+19</v>
       </c>
       <c r="H58" s="10">
         <v>12</v>
       </c>
       <c r="I58" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" s="10"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59" s="10"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H60" s="10">
+        <v>13</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K60" s="10"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H61" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K61" s="10"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K62" s="10"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H63" s="10">
+        <v>12</v>
+      </c>
+      <c r="I63" s="10">
+        <v>2025</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K63" s="10"/>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H64" s="10">
+        <v>12</v>
+      </c>
+      <c r="I64" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J64" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C62" s="4"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C63" s="4"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I64" s="4"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I66" s="4"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I68" s="4"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I70" s="4"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I72" s="4"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I74" s="4"/>
+      <c r="K64" s="10"/>
+      <c r="M64" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vohoa\My Drive\Work\Learning\Playwright\Demoblaze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B987F4-4180-439E-8BDD-88AEF68AC331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B8E71F-4779-4638-8849-C1509127EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D0C053E3-57BD-4EE2-A6D2-4437B9863B6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="267">
   <si>
     <t>Feature</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>TD-LGN-VALID-01</t>
-  </si>
-  <si>
-    <t>Pass@123</t>
   </si>
   <si>
     <t>N/A</t>
@@ -674,9 +671,6 @@
 Remove Samsung Galaxy S6 ($360)</t>
   </si>
   <si>
-    <t>[Random text which is non-existent username]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Los Angeles </t>
   </si>
   <si>
@@ -792,9 +786,6 @@
   </si>
   <si>
     <t>[HTML tags]</t>
-  </si>
-  <si>
-    <t>testuser1234567890</t>
   </si>
   <si>
     <r>
@@ -911,12 +902,48 @@
     <t>[XSS script]</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>No application crash
 No unhandled errors
 No security vulnerabilities triggered</t>
+  </si>
+  <si>
+    <t>[valid password]</t>
+  </si>
+  <si>
+    <t>[non-existent username]</t>
+  </si>
+  <si>
+    <t>Other Expected Results</t>
+  </si>
+  <si>
+    <t>TD-CRT-ADD-04</t>
+  </si>
+  <si>
+    <t>Add multiple products from different tabs</t>
+  </si>
+  <si>
+    <t>TD-CRT-ORD-VAL-10</t>
+  </si>
+  <si>
+    <t>Place order with cart tampering via dev tools</t>
+  </si>
+  <si>
+    <t>Correct price and total amount are appied
+No application crash
+No unhandled errors
+No security vulnerabilities triggered</t>
+  </si>
+  <si>
+    <t>TD-CRT-ORD-NEG-13</t>
+  </si>
+  <si>
+    <t>Place order with declined credit card</t>
+  </si>
+  <si>
+    <t>[declined card number]</t>
+  </si>
+  <si>
+    <t>Card is declined.</t>
   </si>
 </sst>
 </file>
@@ -1459,8 +1486,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1858,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>6</v>
@@ -1867,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1878,25 +1909,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -1908,25 +1939,25 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -1938,25 +1969,25 @@
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="8"/>
     </row>
@@ -1968,25 +1999,25 @@
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J5" s="8"/>
     </row>
@@ -1998,25 +2029,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -2028,175 +2059,175 @@
         <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="G7" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="8"/>
     </row>
@@ -2243,7 +2274,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B5B937-4BBA-4703-BB45-7A7B8891B1BF}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -2272,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>21</v>
@@ -2284,7 +2315,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2295,16 +2326,16 @@
         <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2312,19 +2343,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="E3" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2332,19 +2363,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2352,10 +2383,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -2364,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2372,19 +2403,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2392,19 +2423,19 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2412,19 +2443,19 @@
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2432,19 +2463,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2452,19 +2483,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>227</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,19 +2503,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2492,19 +2523,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2512,19 +2543,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,19 +2563,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2552,19 +2583,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2572,19 +2603,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2592,19 +2623,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2612,19 +2643,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2632,19 +2663,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="E19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2652,19 +2683,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="F20" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,19 +2703,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="F21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2692,19 +2723,19 @@
         <v>10</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2712,19 +2743,19 @@
         <v>10</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2732,19 +2763,19 @@
         <v>10</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="D24" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2752,19 +2783,19 @@
         <v>10</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>219</v>
+        <v>234</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,19 +2803,19 @@
         <v>10</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>208</v>
+        <v>235</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>219</v>
+        <v>256</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2792,19 +2823,19 @@
         <v>10</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>220</v>
+        <v>236</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2812,19 +2843,19 @@
         <v>10</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>210</v>
+        <v>237</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>220</v>
+        <v>256</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2832,19 +2863,19 @@
         <v>10</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>221</v>
+        <v>238</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2852,19 +2883,19 @@
         <v>10</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>212</v>
+        <v>239</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>221</v>
+        <v>256</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2872,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E33" s="3"/>
       <c r="I33" s="6"/>
@@ -2888,13 +2919,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I34" s="5"/>
       <c r="M34" s="3"/>
@@ -2904,13 +2935,13 @@
         <v>14</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I35" s="5"/>
       <c r="M35" s="3"/>
@@ -2920,50 +2951,62 @@
         <v>14</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I36" s="5"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I37" s="5"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I38" s="5"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="M39" s="3"/>
     </row>
@@ -2971,97 +3014,75 @@
       <c r="I40" s="5"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I41" s="5"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="K41" s="9" t="s">
+      <c r="J42" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="12">
-        <v>4111111111111110</v>
-      </c>
-      <c r="H42" s="10">
-        <v>12</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="G43" s="12">
         <v>4111111111111110</v>
       </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="H43" s="10">
+        <v>12</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="J43" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K43" s="10"/>
       <c r="M43" s="3"/>
@@ -3071,53 +3092,45 @@
         <v>16</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>184</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="12">
         <v>4111111111111110</v>
       </c>
-      <c r="H44" s="10">
-        <v>12</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>185</v>
-      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K44" s="10"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="G45" s="12">
         <v>4111111111111110</v>
@@ -3126,31 +3139,32 @@
         <v>12</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="G46" s="12">
         <v>4111111111111110</v>
@@ -3159,13 +3173,13 @@
         <v>12</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -3173,19 +3187,19 @@
         <v>16</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G47" s="12">
         <v>4111111111111110</v>
@@ -3194,13 +3208,13 @@
         <v>12</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -3208,19 +3222,19 @@
         <v>16</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G48" s="12">
         <v>4111111111111110</v>
@@ -3229,13 +3243,13 @@
         <v>12</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -3243,19 +3257,19 @@
         <v>16</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="G49" s="12">
         <v>4111111111111110</v>
@@ -3264,13 +3278,13 @@
         <v>12</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -3278,19 +3292,19 @@
         <v>16</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>248</v>
+        <v>250</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G50" s="12">
         <v>4111111111111110</v>
@@ -3299,33 +3313,33 @@
         <v>12</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>186</v>
+        <v>251</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="G51" s="12">
         <v>4111111111111110</v>
@@ -3334,32 +3348,33 @@
         <v>12</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>187</v>
+        <v>260</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G52" s="12">
         <v>4111111111111110</v>
@@ -3368,32 +3383,33 @@
         <v>12</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K52" s="10"/>
-      <c r="M52" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E53" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G53" s="12">
         <v>4111111111111110</v>
@@ -3402,44 +3418,44 @@
         <v>12</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K53" s="10"/>
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>39</v>
+      <c r="G54" s="12">
+        <v>4111111111111110</v>
       </c>
       <c r="H54" s="10">
         <v>12</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K54" s="10"/>
       <c r="M54" s="3"/>
@@ -3449,31 +3465,31 @@
         <v>18</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="G55" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H55" s="10">
+        <v>12</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K55" s="10"/>
       <c r="M55" s="3"/>
@@ -3483,31 +3499,31 @@
         <v>18</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="G56" s="12" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H56" s="10">
         <v>12</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="K56" s="10"/>
       <c r="M56" s="3"/>
@@ -3517,31 +3533,31 @@
         <v>18</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="12">
-        <v>123</v>
-      </c>
-      <c r="H57" s="10">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="K57" s="10"/>
       <c r="M57" s="3"/>
@@ -3551,31 +3567,31 @@
         <v>18</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D58" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58" s="12">
-        <v>1.23456789012345E+19</v>
+      <c r="G58" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="H58" s="10">
         <v>12</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K58" s="10"/>
       <c r="M58" s="3"/>
@@ -3585,31 +3601,31 @@
         <v>18</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="G59" s="12">
-        <v>4111111111111110</v>
+        <v>123</v>
       </c>
       <c r="H59" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K59" s="10"/>
       <c r="M59" s="3"/>
@@ -3619,31 +3635,31 @@
         <v>18</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="G60" s="12">
-        <v>4111111111111110</v>
+        <v>1.23456789012345E+19</v>
       </c>
       <c r="H60" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K60" s="10"/>
       <c r="M60" s="3"/>
@@ -3653,31 +3669,31 @@
         <v>18</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D61" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G61" s="12">
         <v>4111111111111110</v>
       </c>
       <c r="H61" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K61" s="10"/>
       <c r="M61" s="3"/>
@@ -3687,31 +3703,31 @@
         <v>18</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D62" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="F62" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G62" s="12">
         <v>4111111111111110</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>67</v>
+      <c r="H62" s="10">
+        <v>13</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K62" s="10"/>
       <c r="M62" s="3"/>
@@ -3721,31 +3737,31 @@
         <v>18</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D63" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="F63" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G63" s="12">
         <v>4111111111111110</v>
       </c>
       <c r="H63" s="10">
-        <v>12</v>
-      </c>
-      <c r="I63" s="10">
-        <v>2025</v>
+        <v>-1</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K63" s="10"/>
       <c r="M63" s="3"/>
@@ -3755,34 +3771,135 @@
         <v>18</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D64" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="F64" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G64" s="12">
         <v>4111111111111110</v>
       </c>
-      <c r="H64" s="10">
-        <v>12</v>
+      <c r="H64" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K64" s="10"/>
       <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H65" s="10">
+        <v>12</v>
+      </c>
+      <c r="I65" s="10">
+        <v>2025</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K65" s="10"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="12">
+        <v>4111111111111110</v>
+      </c>
+      <c r="H66" s="10">
+        <v>12</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H67" s="10">
+        <v>12</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K67" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
